--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,49 +540,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H2">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I2">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J2">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.82820842131508</v>
+        <v>0.005250333333333333</v>
       </c>
       <c r="N2">
-        <v>5.82820842131508</v>
+        <v>0.015751</v>
       </c>
       <c r="O2">
-        <v>0.7349154088261797</v>
+        <v>0.0005654690851650078</v>
       </c>
       <c r="P2">
-        <v>0.7349154088261797</v>
+        <v>0.0005654690851650078</v>
       </c>
       <c r="Q2">
-        <v>12.10748628597705</v>
+        <v>0.0007974923812222223</v>
       </c>
       <c r="R2">
-        <v>12.10748628597705</v>
+        <v>0.007177431431</v>
       </c>
       <c r="S2">
-        <v>0.009584332935692781</v>
+        <v>4.882035562599436E-07</v>
       </c>
       <c r="T2">
-        <v>0.009584332935692781</v>
+        <v>4.882035562599436E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,557 +590,2169 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H3">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I3">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J3">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.1022395612956</v>
+        <v>7.054970999999999</v>
       </c>
       <c r="N3">
-        <v>2.1022395612956</v>
+        <v>21.164913</v>
       </c>
       <c r="O3">
-        <v>0.2650845911738203</v>
+        <v>0.7598313752591569</v>
       </c>
       <c r="P3">
-        <v>0.2650845911738203</v>
+        <v>0.7598313752591569</v>
       </c>
       <c r="Q3">
-        <v>4.367180241039098</v>
+        <v>1.071605413417</v>
       </c>
       <c r="R3">
-        <v>4.367180241039098</v>
+        <v>9.644448720752999</v>
       </c>
       <c r="S3">
-        <v>0.003457076756615961</v>
+        <v>0.0006560082403994864</v>
       </c>
       <c r="T3">
-        <v>0.003457076756615961</v>
+        <v>0.0006560082403994864</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>23.6435781637392</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H4">
-        <v>23.6435781637392</v>
+        <v>0.455681</v>
       </c>
       <c r="I4">
-        <v>0.1484290230455325</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J4">
-        <v>0.1484290230455325</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.82820842131508</v>
+        <v>0.01070466666666667</v>
       </c>
       <c r="N4">
-        <v>5.82820842131508</v>
+        <v>0.032114</v>
       </c>
       <c r="O4">
-        <v>0.7349154088261797</v>
+        <v>0.001152909288361949</v>
       </c>
       <c r="P4">
-        <v>0.7349154088261797</v>
+        <v>0.001152909288361949</v>
       </c>
       <c r="Q4">
-        <v>137.7997013639261</v>
+        <v>0.001625971070444444</v>
       </c>
       <c r="R4">
-        <v>137.7997013639261</v>
+        <v>0.014633739634</v>
       </c>
       <c r="S4">
-        <v>0.1090827761531779</v>
+        <v>9.953761034684671E-07</v>
       </c>
       <c r="T4">
-        <v>0.1090827761531779</v>
+        <v>9.953761034684671E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>23.6435781637392</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H5">
-        <v>23.6435781637392</v>
+        <v>0.455681</v>
       </c>
       <c r="I5">
-        <v>0.1484290230455325</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J5">
-        <v>0.1484290230455325</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.1022395612956</v>
+        <v>0.04203433333333333</v>
       </c>
       <c r="N5">
-        <v>2.1022395612956</v>
+        <v>0.126103</v>
       </c>
       <c r="O5">
-        <v>0.2650845911738203</v>
+        <v>0.004527163230687765</v>
       </c>
       <c r="P5">
-        <v>0.2650845911738203</v>
+        <v>0.004527163230687764</v>
       </c>
       <c r="Q5">
-        <v>49.70446538639733</v>
+        <v>0.006384749015888889</v>
       </c>
       <c r="R5">
-        <v>49.70446538639733</v>
+        <v>0.057462741143</v>
       </c>
       <c r="S5">
-        <v>0.03934624689235453</v>
+        <v>3.908572982988234E-06</v>
       </c>
       <c r="T5">
-        <v>0.03934624689235453</v>
+        <v>3.908572982988233E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>23.22191885869</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H6">
-        <v>23.22191885869</v>
+        <v>0.455681</v>
       </c>
       <c r="I6">
-        <v>0.1457819415304978</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J6">
-        <v>0.1457819415304978</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>5.82820842131508</v>
+        <v>0.01588633333333333</v>
       </c>
       <c r="N6">
-        <v>5.82820842131508</v>
+        <v>0.047659</v>
       </c>
       <c r="O6">
-        <v>0.7349154088261797</v>
+        <v>0.001710982866476992</v>
       </c>
       <c r="P6">
-        <v>0.7349154088261797</v>
+        <v>0.001710982866476992</v>
       </c>
       <c r="Q6">
-        <v>135.3421830513125</v>
+        <v>0.002413033419888889</v>
       </c>
       <c r="R6">
-        <v>135.3421830513125</v>
+        <v>0.021717300779</v>
       </c>
       <c r="S6">
-        <v>0.10713739515936</v>
+        <v>1.477194672579052E-06</v>
       </c>
       <c r="T6">
-        <v>0.10713739515936</v>
+        <v>1.477194672579052E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>23.22191885869</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H7">
-        <v>23.22191885869</v>
+        <v>0.455681</v>
       </c>
       <c r="I7">
-        <v>0.1457819415304978</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J7">
-        <v>0.1457819415304978</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.1022395612956</v>
+        <v>2.15607</v>
       </c>
       <c r="N7">
-        <v>2.1022395612956</v>
+        <v>6.468209999999999</v>
       </c>
       <c r="O7">
-        <v>0.2650845911738203</v>
+        <v>0.2322121002701514</v>
       </c>
       <c r="P7">
-        <v>0.2650845911738203</v>
+        <v>0.2322121002701514</v>
       </c>
       <c r="Q7">
-        <v>48.81803651393449</v>
+        <v>0.32749337789</v>
       </c>
       <c r="R7">
-        <v>48.81803651393449</v>
+        <v>2.94744040101</v>
       </c>
       <c r="S7">
-        <v>0.0386445463711378</v>
+        <v>0.0002004827074240448</v>
       </c>
       <c r="T7">
-        <v>0.0386445463711378</v>
+        <v>0.0002004827074240448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>109.547129590327</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H8">
-        <v>109.547129590327</v>
+        <v>6.883193</v>
       </c>
       <c r="I8">
-        <v>0.6877120421422326</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J8">
-        <v>0.6877120421422326</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>5.82820842131508</v>
+        <v>0.005250333333333333</v>
       </c>
       <c r="N8">
-        <v>5.82820842131508</v>
+        <v>0.015751</v>
       </c>
       <c r="O8">
-        <v>0.7349154088261797</v>
+        <v>0.0005654690851650078</v>
       </c>
       <c r="P8">
-        <v>0.7349154088261797</v>
+        <v>0.0005654690851650078</v>
       </c>
       <c r="Q8">
-        <v>638.4635032092382</v>
+        <v>0.01204635254922222</v>
       </c>
       <c r="R8">
-        <v>638.4635032092382</v>
+        <v>0.108417172943</v>
       </c>
       <c r="S8">
-        <v>0.5054101766056458</v>
+        <v>7.374455597278687E-06</v>
       </c>
       <c r="T8">
-        <v>0.5054101766056458</v>
+        <v>7.374455597278689E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>109.547129590327</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H9">
-        <v>109.547129590327</v>
+        <v>6.883193</v>
       </c>
       <c r="I9">
-        <v>0.6877120421422326</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J9">
-        <v>0.6877120421422326</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.1022395612956</v>
+        <v>7.054970999999999</v>
       </c>
       <c r="N9">
-        <v>2.1022395612956</v>
+        <v>21.164913</v>
       </c>
       <c r="O9">
-        <v>0.2650845911738203</v>
+        <v>0.7598313752591569</v>
       </c>
       <c r="P9">
-        <v>0.2650845911738203</v>
+        <v>0.7598313752591569</v>
       </c>
       <c r="Q9">
-        <v>230.2943096511613</v>
+        <v>16.186909000801</v>
       </c>
       <c r="R9">
-        <v>230.2943096511613</v>
+        <v>145.682181007209</v>
       </c>
       <c r="S9">
-        <v>0.1823018655365868</v>
+        <v>0.009909193774285216</v>
       </c>
       <c r="T9">
-        <v>0.1823018655365868</v>
+        <v>0.009909193774285218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.802128935121844</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H10">
-        <v>0.802128935121844</v>
+        <v>6.883193</v>
       </c>
       <c r="I10">
-        <v>0.005035583589428225</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J10">
-        <v>0.005035583589428225</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>5.82820842131508</v>
+        <v>0.01070466666666667</v>
       </c>
       <c r="N10">
-        <v>5.82820842131508</v>
+        <v>0.032114</v>
       </c>
       <c r="O10">
-        <v>0.7349154088261797</v>
+        <v>0.001152909288361949</v>
       </c>
       <c r="P10">
-        <v>0.7349154088261797</v>
+        <v>0.001152909288361949</v>
       </c>
       <c r="Q10">
-        <v>4.674974614657629</v>
+        <v>0.02456076222244444</v>
       </c>
       <c r="R10">
-        <v>4.674974614657629</v>
+        <v>0.221046860002</v>
       </c>
       <c r="S10">
-        <v>0.003700727972303045</v>
+        <v>1.503544327668134E-05</v>
       </c>
       <c r="T10">
-        <v>0.003700727972303045</v>
+        <v>1.503544327668134E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.294397666666667</v>
+      </c>
+      <c r="H11">
+        <v>6.883193</v>
+      </c>
+      <c r="I11">
+        <v>0.01304130639631125</v>
+      </c>
+      <c r="J11">
+        <v>0.01304130639631125</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.04203433333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.126103</v>
+      </c>
+      <c r="O11">
+        <v>0.004527163230687765</v>
+      </c>
+      <c r="P11">
+        <v>0.004527163230687764</v>
+      </c>
+      <c r="Q11">
+        <v>0.09644347631988889</v>
+      </c>
+      <c r="R11">
+        <v>0.867991286879</v>
+      </c>
+      <c r="S11">
+        <v>5.904012279751345E-05</v>
+      </c>
+      <c r="T11">
+        <v>5.904012279751345E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.294397666666667</v>
+      </c>
+      <c r="H12">
+        <v>6.883193</v>
+      </c>
+      <c r="I12">
+        <v>0.01304130639631125</v>
+      </c>
+      <c r="J12">
+        <v>0.01304130639631125</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01588633333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.047659</v>
+      </c>
+      <c r="O12">
+        <v>0.001710982866476992</v>
+      </c>
+      <c r="P12">
+        <v>0.001710982866476992</v>
+      </c>
+      <c r="Q12">
+        <v>0.03644956613188889</v>
+      </c>
+      <c r="R12">
+        <v>0.328046095187</v>
+      </c>
+      <c r="S12">
+        <v>2.231345180056536E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.231345180056536E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.294397666666667</v>
+      </c>
+      <c r="H13">
+        <v>6.883193</v>
+      </c>
+      <c r="I13">
+        <v>0.01304130639631125</v>
+      </c>
+      <c r="J13">
+        <v>0.01304130639631125</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.15607</v>
+      </c>
+      <c r="N13">
+        <v>6.468209999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2322121002701514</v>
+      </c>
+      <c r="P13">
+        <v>0.2322121002701514</v>
+      </c>
+      <c r="Q13">
+        <v>4.946881977169999</v>
+      </c>
+      <c r="R13">
+        <v>44.52193779453</v>
+      </c>
+      <c r="S13">
+        <v>0.003028349148553995</v>
+      </c>
+      <c r="T13">
+        <v>0.003028349148553995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>36.15489266666666</v>
+      </c>
+      <c r="H14">
+        <v>108.464678</v>
+      </c>
+      <c r="I14">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="J14">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.005250333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.015751</v>
+      </c>
+      <c r="O14">
+        <v>0.0005654690851650078</v>
+      </c>
+      <c r="P14">
+        <v>0.0005654690851650078</v>
+      </c>
+      <c r="Q14">
+        <v>0.1898252381308889</v>
+      </c>
+      <c r="R14">
+        <v>1.708427143178</v>
+      </c>
+      <c r="S14">
+        <v>0.0001162059456685481</v>
+      </c>
+      <c r="T14">
+        <v>0.0001162059456685481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>36.15489266666666</v>
+      </c>
+      <c r="H15">
+        <v>108.464678</v>
+      </c>
+      <c r="I15">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="J15">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.054970999999999</v>
+      </c>
+      <c r="N15">
+        <v>21.164913</v>
+      </c>
+      <c r="O15">
+        <v>0.7598313752591569</v>
+      </c>
+      <c r="P15">
+        <v>0.7598313752591569</v>
+      </c>
+      <c r="Q15">
+        <v>255.0717192714459</v>
+      </c>
+      <c r="R15">
+        <v>2295.645473443014</v>
+      </c>
+      <c r="S15">
+        <v>0.1561481004480697</v>
+      </c>
+      <c r="T15">
+        <v>0.1561481004480698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>36.15489266666666</v>
+      </c>
+      <c r="H16">
+        <v>108.464678</v>
+      </c>
+      <c r="I16">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="J16">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01070466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.032114</v>
+      </c>
+      <c r="O16">
+        <v>0.001152909288361949</v>
+      </c>
+      <c r="P16">
+        <v>0.001152909288361949</v>
+      </c>
+      <c r="Q16">
+        <v>0.3870260743657777</v>
+      </c>
+      <c r="R16">
+        <v>3.483234669292</v>
+      </c>
+      <c r="S16">
+        <v>0.0002369270356929561</v>
+      </c>
+      <c r="T16">
+        <v>0.0002369270356929562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>36.15489266666666</v>
+      </c>
+      <c r="H17">
+        <v>108.464678</v>
+      </c>
+      <c r="I17">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="J17">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.04203433333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.126103</v>
+      </c>
+      <c r="O17">
+        <v>0.004527163230687765</v>
+      </c>
+      <c r="P17">
+        <v>0.004527163230687764</v>
+      </c>
+      <c r="Q17">
+        <v>1.519746809981555</v>
+      </c>
+      <c r="R17">
+        <v>13.677721289834</v>
+      </c>
+      <c r="S17">
+        <v>0.0009303484455997026</v>
+      </c>
+      <c r="T17">
+        <v>0.0009303484455997026</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.802128935121844</v>
-      </c>
-      <c r="H11">
-        <v>0.802128935121844</v>
-      </c>
-      <c r="I11">
-        <v>0.005035583589428225</v>
-      </c>
-      <c r="J11">
-        <v>0.005035583589428225</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.1022395612956</v>
-      </c>
-      <c r="N11">
-        <v>2.1022395612956</v>
-      </c>
-      <c r="O11">
-        <v>0.2650845911738203</v>
-      </c>
-      <c r="P11">
-        <v>0.2650845911738203</v>
-      </c>
-      <c r="Q11">
-        <v>1.686267180673052</v>
-      </c>
-      <c r="R11">
-        <v>1.686267180673052</v>
-      </c>
-      <c r="S11">
-        <v>0.00133485561712518</v>
-      </c>
-      <c r="T11">
-        <v>0.00133485561712518</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>36.15489266666666</v>
+      </c>
+      <c r="H18">
+        <v>108.464678</v>
+      </c>
+      <c r="I18">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="J18">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01588633333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.047659</v>
+      </c>
+      <c r="O18">
+        <v>0.001710982866476992</v>
+      </c>
+      <c r="P18">
+        <v>0.001710982866476992</v>
+      </c>
+      <c r="Q18">
+        <v>0.5743686765335554</v>
+      </c>
+      <c r="R18">
+        <v>5.169318088802</v>
+      </c>
+      <c r="S18">
+        <v>0.0003516131778691723</v>
+      </c>
+      <c r="T18">
+        <v>0.0003516131778691723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>36.15489266666666</v>
+      </c>
+      <c r="H19">
+        <v>108.464678</v>
+      </c>
+      <c r="I19">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="J19">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.15607</v>
+      </c>
+      <c r="N19">
+        <v>6.468209999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2322121002701514</v>
+      </c>
+      <c r="P19">
+        <v>0.2322121002701514</v>
+      </c>
+      <c r="Q19">
+        <v>77.95247943181998</v>
+      </c>
+      <c r="R19">
+        <v>701.5723148863799</v>
+      </c>
+      <c r="S19">
+        <v>0.0477204278987213</v>
+      </c>
+      <c r="T19">
+        <v>0.0477204278987213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>23.77214366666666</v>
+      </c>
+      <c r="H20">
+        <v>71.31643099999999</v>
+      </c>
+      <c r="I20">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="J20">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.005250333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.015751</v>
+      </c>
+      <c r="O20">
+        <v>0.0005654690851650078</v>
+      </c>
+      <c r="P20">
+        <v>0.0005654690851650078</v>
+      </c>
+      <c r="Q20">
+        <v>0.1248116782978889</v>
+      </c>
+      <c r="R20">
+        <v>1.123305104681</v>
+      </c>
+      <c r="S20">
+        <v>7.640637909846336E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.640637909846336E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.77214366666666</v>
+      </c>
+      <c r="H21">
+        <v>71.31643099999999</v>
+      </c>
+      <c r="I21">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="J21">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.054970999999999</v>
+      </c>
+      <c r="N21">
+        <v>21.164913</v>
+      </c>
+      <c r="O21">
+        <v>0.7598313752591569</v>
+      </c>
+      <c r="P21">
+        <v>0.7598313752591569</v>
+      </c>
+      <c r="Q21">
+        <v>167.711784176167</v>
+      </c>
+      <c r="R21">
+        <v>1509.406057585503</v>
+      </c>
+      <c r="S21">
+        <v>0.1026686792117323</v>
+      </c>
+      <c r="T21">
+        <v>0.1026686792117323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>23.77214366666666</v>
+      </c>
+      <c r="H22">
+        <v>71.31643099999999</v>
+      </c>
+      <c r="I22">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="J22">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01070466666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.032114</v>
+      </c>
+      <c r="O22">
+        <v>0.001152909288361949</v>
+      </c>
+      <c r="P22">
+        <v>0.001152909288361949</v>
+      </c>
+      <c r="Q22">
+        <v>0.2544728739037778</v>
+      </c>
+      <c r="R22">
+        <v>2.290255865134</v>
+      </c>
+      <c r="S22">
+        <v>0.0001557815032930006</v>
+      </c>
+      <c r="T22">
+        <v>0.0001557815032930006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>23.77214366666666</v>
+      </c>
+      <c r="H23">
+        <v>71.31643099999999</v>
+      </c>
+      <c r="I23">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="J23">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.04203433333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.126103</v>
+      </c>
+      <c r="O23">
+        <v>0.004527163230687765</v>
+      </c>
+      <c r="P23">
+        <v>0.004527163230687764</v>
+      </c>
+      <c r="Q23">
+        <v>0.9992462109325555</v>
+      </c>
+      <c r="R23">
+        <v>8.993215898392998</v>
+      </c>
+      <c r="S23">
+        <v>0.0006117118674022935</v>
+      </c>
+      <c r="T23">
+        <v>0.0006117118674022934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>23.77214366666666</v>
+      </c>
+      <c r="H24">
+        <v>71.31643099999999</v>
+      </c>
+      <c r="I24">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="J24">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01588633333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.047659</v>
+      </c>
+      <c r="O24">
+        <v>0.001710982866476992</v>
+      </c>
+      <c r="P24">
+        <v>0.001710982866476992</v>
+      </c>
+      <c r="Q24">
+        <v>0.3776521983365555</v>
+      </c>
+      <c r="R24">
+        <v>3.398869785029</v>
+      </c>
+      <c r="S24">
+        <v>0.0002311885989114129</v>
+      </c>
+      <c r="T24">
+        <v>0.0002311885989114129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>23.77214366666666</v>
+      </c>
+      <c r="H25">
+        <v>71.31643099999999</v>
+      </c>
+      <c r="I25">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="J25">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.15607</v>
+      </c>
+      <c r="N25">
+        <v>6.468209999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2322121002701514</v>
+      </c>
+      <c r="P25">
+        <v>0.2322121002701514</v>
+      </c>
+      <c r="Q25">
+        <v>51.25440579538999</v>
+      </c>
+      <c r="R25">
+        <v>461.2896521585099</v>
+      </c>
+      <c r="S25">
+        <v>0.03137657960437252</v>
+      </c>
+      <c r="T25">
+        <v>0.03137657960437252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>112.663142</v>
+      </c>
+      <c r="H26">
+        <v>337.989426</v>
+      </c>
+      <c r="I26">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="J26">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.005250333333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.015751</v>
+      </c>
+      <c r="O26">
+        <v>0.0005654690851650078</v>
+      </c>
+      <c r="P26">
+        <v>0.0005654690851650078</v>
+      </c>
+      <c r="Q26">
+        <v>0.5915190498806666</v>
+      </c>
+      <c r="R26">
+        <v>5.323671448926</v>
+      </c>
+      <c r="S26">
+        <v>0.000362112178808107</v>
+      </c>
+      <c r="T26">
+        <v>0.000362112178808107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>112.663142</v>
+      </c>
+      <c r="H27">
+        <v>337.989426</v>
+      </c>
+      <c r="I27">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="J27">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.054970999999999</v>
+      </c>
+      <c r="N27">
+        <v>21.164913</v>
+      </c>
+      <c r="O27">
+        <v>0.7598313752591569</v>
+      </c>
+      <c r="P27">
+        <v>0.7598313752591569</v>
+      </c>
+      <c r="Q27">
+        <v>794.8351995788819</v>
+      </c>
+      <c r="R27">
+        <v>7153.516796209937</v>
+      </c>
+      <c r="S27">
+        <v>0.4865769005595853</v>
+      </c>
+      <c r="T27">
+        <v>0.4865769005595853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>112.663142</v>
+      </c>
+      <c r="H28">
+        <v>337.989426</v>
+      </c>
+      <c r="I28">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="J28">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01070466666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.032114</v>
+      </c>
+      <c r="O28">
+        <v>0.001152909288361949</v>
+      </c>
+      <c r="P28">
+        <v>0.001152909288361949</v>
+      </c>
+      <c r="Q28">
+        <v>1.206021380729333</v>
+      </c>
+      <c r="R28">
+        <v>10.854192426564</v>
+      </c>
+      <c r="S28">
+        <v>0.0007382941089609261</v>
+      </c>
+      <c r="T28">
+        <v>0.0007382941089609261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>112.663142</v>
+      </c>
+      <c r="H29">
+        <v>337.989426</v>
+      </c>
+      <c r="I29">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="J29">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.04203433333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.126103</v>
+      </c>
+      <c r="O29">
+        <v>0.004527163230687765</v>
+      </c>
+      <c r="P29">
+        <v>0.004527163230687764</v>
+      </c>
+      <c r="Q29">
+        <v>4.735720065208667</v>
+      </c>
+      <c r="R29">
+        <v>42.62148058687799</v>
+      </c>
+      <c r="S29">
+        <v>0.002899081460493856</v>
+      </c>
+      <c r="T29">
+        <v>0.002899081460493855</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>112.663142</v>
+      </c>
+      <c r="H30">
+        <v>337.989426</v>
+      </c>
+      <c r="I30">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="J30">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.01588633333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.047659</v>
+      </c>
+      <c r="O30">
+        <v>0.001710982866476992</v>
+      </c>
+      <c r="P30">
+        <v>0.001710982866476992</v>
+      </c>
+      <c r="Q30">
+        <v>1.789804228192666</v>
+      </c>
+      <c r="R30">
+        <v>16.108238053734</v>
+      </c>
+      <c r="S30">
+        <v>0.001095670391074571</v>
+      </c>
+      <c r="T30">
+        <v>0.001095670391074571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>112.663142</v>
+      </c>
+      <c r="H31">
+        <v>337.989426</v>
+      </c>
+      <c r="I31">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="J31">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.15607</v>
+      </c>
+      <c r="N31">
+        <v>6.468209999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2322121002701514</v>
+      </c>
+      <c r="P31">
+        <v>0.2322121002701514</v>
+      </c>
+      <c r="Q31">
+        <v>242.9096205719399</v>
+      </c>
+      <c r="R31">
+        <v>2186.186585147459</v>
+      </c>
+      <c r="S31">
+        <v>0.148702788146047</v>
+      </c>
+      <c r="T31">
+        <v>0.1487027881460469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H32">
+        <v>2.689938</v>
+      </c>
+      <c r="I32">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J32">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.005250333333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.015751</v>
+      </c>
+      <c r="O32">
+        <v>0.0005654690851650078</v>
+      </c>
+      <c r="P32">
+        <v>0.0005654690851650078</v>
+      </c>
+      <c r="Q32">
+        <v>0.004707690382</v>
+      </c>
+      <c r="R32">
+        <v>0.042369213438</v>
+      </c>
+      <c r="S32">
+        <v>2.88192243635078E-06</v>
+      </c>
+      <c r="T32">
+        <v>2.88192243635078E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H33">
+        <v>2.689938</v>
+      </c>
+      <c r="I33">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J33">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>7.054970999999999</v>
+      </c>
+      <c r="N33">
+        <v>21.164913</v>
+      </c>
+      <c r="O33">
+        <v>0.7598313752591569</v>
+      </c>
+      <c r="P33">
+        <v>0.7598313752591569</v>
+      </c>
+      <c r="Q33">
+        <v>6.325811527265999</v>
+      </c>
+      <c r="R33">
+        <v>56.93230374539399</v>
+      </c>
+      <c r="S33">
+        <v>0.003872493025084902</v>
+      </c>
+      <c r="T33">
+        <v>0.003872493025084903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H34">
+        <v>2.689938</v>
+      </c>
+      <c r="I34">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J34">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.01070466666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.032114</v>
+      </c>
+      <c r="O34">
+        <v>0.001152909288361949</v>
+      </c>
+      <c r="P34">
+        <v>0.001152909288361949</v>
+      </c>
+      <c r="Q34">
+        <v>0.009598296547999999</v>
+      </c>
+      <c r="R34">
+        <v>0.08638466893199999</v>
+      </c>
+      <c r="S34">
+        <v>5.875821034916446E-06</v>
+      </c>
+      <c r="T34">
+        <v>5.875821034916447E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H35">
+        <v>2.689938</v>
+      </c>
+      <c r="I35">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J35">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.04203433333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.126103</v>
+      </c>
+      <c r="O35">
+        <v>0.004527163230687765</v>
+      </c>
+      <c r="P35">
+        <v>0.004527163230687764</v>
+      </c>
+      <c r="Q35">
+        <v>0.037689916846</v>
+      </c>
+      <c r="R35">
+        <v>0.339209251614</v>
+      </c>
+      <c r="S35">
+        <v>2.307276141141149E-05</v>
+      </c>
+      <c r="T35">
+        <v>2.307276141141149E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H36">
+        <v>2.689938</v>
+      </c>
+      <c r="I36">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J36">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.01588633333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.047659</v>
+      </c>
+      <c r="O36">
+        <v>0.001710982866476992</v>
+      </c>
+      <c r="P36">
+        <v>0.001710982866476992</v>
+      </c>
+      <c r="Q36">
+        <v>0.014244417238</v>
+      </c>
+      <c r="R36">
+        <v>0.128199755142</v>
+      </c>
+      <c r="S36">
+        <v>8.720052148691626E-06</v>
+      </c>
+      <c r="T36">
+        <v>8.720052148691628E-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H37">
+        <v>2.689938</v>
+      </c>
+      <c r="I37">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J37">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.15607</v>
+      </c>
+      <c r="N37">
+        <v>6.468209999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.2322121002701514</v>
+      </c>
+      <c r="P37">
+        <v>0.2322121002701514</v>
+      </c>
+      <c r="Q37">
+        <v>1.93323154122</v>
+      </c>
+      <c r="R37">
+        <v>17.39908387098</v>
+      </c>
+      <c r="S37">
+        <v>0.0011834727650326</v>
+      </c>
+      <c r="T37">
+        <v>0.0011834727650326</v>
       </c>
     </row>
   </sheetData>
